--- a/Electronics/BOM_LaserMonitorV1.xlsx
+++ b/Electronics/BOM_LaserMonitorV1.xlsx
@@ -46,13 +46,34 @@
     <t>1</t>
   </si>
   <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C1,C5</t>
+  </si>
+  <si>
+    <t>C0603</t>
+  </si>
+  <si>
+    <t>CL10A106MA8NRNC</t>
+  </si>
+  <si>
+    <t>SAMSUNG(三星)</t>
+  </si>
+  <si>
+    <t>C96446</t>
+  </si>
+  <si>
+    <t>LCSC</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>100nF</t>
   </si>
   <si>
-    <t>C29,C30,C34,C35,C36,C37,C38,C39,C44,C45,C46,C47,C50,C51,C52,C53,C55,C56,C57,C58,C60</t>
-  </si>
-  <si>
-    <t>C0603</t>
+    <t>C2,C3,C4,C6,C7,C12,C13,C14,C15,C16,C17,C20,C21,C22,C23,C26,C27,C29,C30,C31,C32</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB104</t>
@@ -64,34 +85,46 @@
     <t>C14663</t>
   </si>
   <si>
-    <t>LCSC</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>C8,C9,C10,C11</t>
+  </si>
+  <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>CL31A226KAHNNNE</t>
+  </si>
+  <si>
+    <t>C12891</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>1uF</t>
   </si>
   <si>
-    <t>C42,C43,C65</t>
+    <t>C18,C19,C28</t>
   </si>
   <si>
     <t>CL10A105KB8NNNC</t>
   </si>
   <si>
-    <t>SAMSUNG(三星)</t>
-  </si>
-  <si>
     <t>C15849</t>
   </si>
   <si>
-    <t>3</t>
+    <t>5</t>
   </si>
   <si>
     <t>15pF</t>
   </si>
   <si>
-    <t>C48,C49</t>
+    <t>C24,C25</t>
   </si>
   <si>
     <t>CL10C150JB8NNNC</t>
@@ -100,39 +133,6 @@
     <t>C1644</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C54,C59</t>
-  </si>
-  <si>
-    <t>CL10A106MA8NRNC</t>
-  </si>
-  <si>
-    <t>C96446</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>C61,C62,C63,C64</t>
-  </si>
-  <si>
-    <t>C1206</t>
-  </si>
-  <si>
-    <t>CL31A226KAHNNNE</t>
-  </si>
-  <si>
-    <t>C12891</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -208,10 +208,28 @@
     <t>10</t>
   </si>
   <si>
+    <t>SS34</t>
+  </si>
+  <si>
+    <t>D1,D2,D3,D4,D7</t>
+  </si>
+  <si>
+    <t>SMA_L4.3-W2.6-LS5.2-RD</t>
+  </si>
+  <si>
+    <t>MDD(辰达半导体)</t>
+  </si>
+  <si>
+    <t>C8678</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>SRV05-4</t>
   </si>
   <si>
-    <t>D4,D5,D11,D12</t>
+    <t>D5,D6,D8,D9</t>
   </si>
   <si>
     <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BL</t>
@@ -223,24 +241,6 @@
     <t>C558418</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>SS34</t>
-  </si>
-  <si>
-    <t>D6,D7,D8,D9,D10</t>
-  </si>
-  <si>
-    <t>SMA_L4.3-W2.6-LS5.2-RD</t>
-  </si>
-  <si>
-    <t>MDD(辰达半导体)</t>
-  </si>
-  <si>
-    <t>C8678</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -265,7 +265,7 @@
     <t>MF-NSMF050-2</t>
   </si>
   <si>
-    <t>F1,F2,F3,F6</t>
+    <t>F1,F2,F3,F4</t>
   </si>
   <si>
     <t>F1206</t>
@@ -283,21 +283,21 @@
     <t>HDR-M_2.54_1x4P</t>
   </si>
   <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>HDR-TH_4P-P2.54-V-M</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>HDR-F_2.54_2x3</t>
+  </si>
+  <si>
     <t>H2</t>
   </si>
   <si>
-    <t>HDR-TH_4P-P2.54-V-M</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>HDR-F_2.54_2x3</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
     <t>HDR-TH_6P-P2.54-V-F-R2-C3-S2.54</t>
   </si>
   <si>
@@ -361,10 +361,61 @@
     <t>19</t>
   </si>
   <si>
+    <t>20kΩ</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R0603</t>
+  </si>
+  <si>
+    <t>0603WAF2002T5E</t>
+  </si>
+  <si>
+    <t>UNI-ROYAL(厚声)</t>
+  </si>
+  <si>
+    <t>C4184</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>8.2kΩ</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>0603WAF8201T5E</t>
+  </si>
+  <si>
+    <t>C25981</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>100Ω</t>
+  </si>
+  <si>
+    <t>R3,R4</t>
+  </si>
+  <si>
+    <t>0603WAF1000T5E</t>
+  </si>
+  <si>
+    <t>C22775</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>390Ω</t>
   </si>
   <si>
-    <t>R6,R21,R23,R24,R25,R26,R27,R28,R31,R32,R37,R38,R39,R41</t>
+    <t>R5,R6,R8,R9,R11,R12,R14,R15,R17,R18,R19,R20,R29,R37</t>
   </si>
   <si>
     <t>R0805</t>
@@ -373,22 +424,16 @@
     <t>0805W8F3900T5E</t>
   </si>
   <si>
-    <t>UNI-ROYAL(厚声)</t>
-  </si>
-  <si>
     <t>C17655</t>
   </si>
   <si>
-    <t>20</t>
+    <t>23</t>
   </si>
   <si>
     <t>10kΩ</t>
   </si>
   <si>
-    <t>R15,R20,R33,R34,R35,R36,R40,R42,R43,R45,R46,R53,R54</t>
-  </si>
-  <si>
-    <t>R0603</t>
+    <t>R7,R10,R13,R16,R22,R23,R24,R25,R31,R32,R33,R34,R35</t>
   </si>
   <si>
     <t>0603WAF1002T5E</t>
@@ -397,13 +442,13 @@
     <t>C25804</t>
   </si>
   <si>
-    <t>21</t>
+    <t>24</t>
   </si>
   <si>
     <t>4.7kΩ</t>
   </si>
   <si>
-    <t>R16,R17,R47,R48</t>
+    <t>R21,R26,R27,R28</t>
   </si>
   <si>
     <t>0603WAF4701T5E</t>
@@ -412,13 +457,13 @@
     <t>C23162</t>
   </si>
   <si>
-    <t>22</t>
+    <t>25</t>
   </si>
   <si>
     <t>1kΩ</t>
   </si>
   <si>
-    <t>R29,R44</t>
+    <t>R30,R36</t>
   </si>
   <si>
     <t>0603WAF1001T5E</t>
@@ -427,51 +472,6 @@
     <t>C21190</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>100Ω</t>
-  </si>
-  <si>
-    <t>R49,R50</t>
-  </si>
-  <si>
-    <t>0603WAF1000T5E</t>
-  </si>
-  <si>
-    <t>C22775</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>20kΩ</t>
-  </si>
-  <si>
-    <t>R51</t>
-  </si>
-  <si>
-    <t>0603WAF2002T5E</t>
-  </si>
-  <si>
-    <t>C4184</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>8.2kΩ</t>
-  </si>
-  <si>
-    <t>R52</t>
-  </si>
-  <si>
-    <t>0603WAF8201T5E</t>
-  </si>
-  <si>
-    <t>C25981</t>
-  </si>
-  <si>
     <t>26</t>
   </si>
   <si>
@@ -496,25 +496,43 @@
     <t>HX711</t>
   </si>
   <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SOP-16_L10.0-W3.9-P1.27-LS6.0-BL</t>
+  </si>
+  <si>
+    <t>AVIA(海芯科技)</t>
+  </si>
+  <si>
+    <t>C6705483</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>WF100SPZ 2BG D6 AT</t>
+  </si>
+  <si>
     <t>U2</t>
   </si>
   <si>
-    <t>SOP-16_L10.0-W3.9-P1.27-LS6.0-BL</t>
-  </si>
-  <si>
-    <t>AVIA(海芯科技)</t>
-  </si>
-  <si>
-    <t>C6705483</t>
-  </si>
-  <si>
-    <t>28</t>
+    <t>DIP-6_L8.5-W8.5-P2.54-LS10.2-TL</t>
+  </si>
+  <si>
+    <t>WF(伟烽)</t>
+  </si>
+  <si>
+    <t>C2886644</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
   <si>
     <t>AT172-CuH-S</t>
   </si>
   <si>
-    <t>U3,U13,U14,U15,U16,U17,U20,U21,U22,U23,U24,U25</t>
+    <t>U3,U4,U5,U6,U7,U8,U9,U10,U11,U12,U13,U14</t>
   </si>
   <si>
     <t>SOP-4_L4.6-W4.2-P2.54-LS7.1-BL</t>
@@ -526,16 +544,49 @@
     <t>C20624244</t>
   </si>
   <si>
-    <t>29</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>SN74LVC1T45DBVR</t>
+  </si>
+  <si>
+    <t>U15,U16,U17,U18</t>
+  </si>
+  <si>
+    <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BR</t>
+  </si>
+  <si>
+    <t>TI(德州仪器)</t>
+  </si>
+  <si>
+    <t>C7843</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>MX5052S</t>
+  </si>
+  <si>
+    <t>U19,U24</t>
+  </si>
+  <si>
+    <t>SOP-8_L4.9-W3.9-P1.27-LS6.0-BL</t>
+  </si>
+  <si>
+    <t>Wuxi Maxinmicro(无锡明芯微)</t>
+  </si>
+  <si>
+    <t>C5875696</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>DS18B20Z</t>
   </si>
   <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>SOP-8_L4.9-W3.9-P1.27-LS6.0-BL</t>
+    <t>U20</t>
   </si>
   <si>
     <t>UMW(友台半导体)</t>
@@ -544,46 +595,31 @@
     <t>C695837</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>MX5052S</t>
-  </si>
-  <si>
-    <t>U5,U11</t>
-  </si>
-  <si>
-    <t>Wuxi Maxinmicro(无锡明芯微)</t>
-  </si>
-  <si>
-    <t>C5875696</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>SN74LVC1T45DBVR</t>
-  </si>
-  <si>
-    <t>U8,U9,U27,U28</t>
-  </si>
-  <si>
-    <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BR</t>
-  </si>
-  <si>
-    <t>TI(德州仪器)</t>
-  </si>
-  <si>
-    <t>C7843</t>
-  </si>
-  <si>
-    <t>32</t>
+    <t>33</t>
+  </si>
+  <si>
+    <t>L78M05ABDT-TR</t>
+  </si>
+  <si>
+    <t>U21</t>
+  </si>
+  <si>
+    <t>TO-252-2_L6.5-W6.1-P4.58-LS10.0-TL</t>
+  </si>
+  <si>
+    <t>ST(意法半导体)</t>
+  </si>
+  <si>
+    <t>C58069</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
   <si>
     <t>ATMEGA328PB-AU</t>
   </si>
   <si>
-    <t>U10</t>
+    <t>U22</t>
   </si>
   <si>
     <t>TQFP-32_L7.0-W7.0-P0.80-LS9.0-BL</t>
@@ -595,55 +631,19 @@
     <t>C132230</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>L78M05ABDT-TR</t>
-  </si>
-  <si>
-    <t>U18</t>
-  </si>
-  <si>
-    <t>TO-252-2_L6.5-W6.1-P4.58-LS10.0-TL</t>
-  </si>
-  <si>
-    <t>ST(意法半导体)</t>
-  </si>
-  <si>
-    <t>C58069</t>
-  </si>
-  <si>
-    <t>34</t>
+    <t>35</t>
   </si>
   <si>
     <t>CH340C</t>
   </si>
   <si>
-    <t>U26</t>
+    <t>U23</t>
   </si>
   <si>
     <t>WCH(南京沁恒)</t>
   </si>
   <si>
     <t>C7464026</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>WF100SPZ 2BG D6 AT</t>
-  </si>
-  <si>
-    <t>U29</t>
-  </si>
-  <si>
-    <t>DIP-6_L8.5-W8.5-P2.54-LS10.2-TL</t>
-  </si>
-  <si>
-    <t>WF(伟烽)</t>
-  </si>
-  <si>
-    <t>C2886644</t>
   </si>
   <si>
     <t>36</t>
@@ -1087,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1119,7 +1119,7 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1151,7 +1151,7 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -1160,19 +1160,19 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -1180,31 +1180,31 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -1212,28 +1212,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
       </c>
       <c r="G6" t="s">
         <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
         <v>39</v>
@@ -1375,7 +1375,7 @@
         <v>64</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>65</v>
@@ -1407,7 +1407,7 @@
         <v>70</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>71</v>
@@ -1663,7 +1663,7 @@
         <v>115</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>116</v>
@@ -1695,7 +1695,7 @@
         <v>122</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>123</v>
@@ -1704,19 +1704,19 @@
         <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F21" t="s">
         <v>123</v>
       </c>
       <c r="G21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H21" t="s">
         <v>120</v>
       </c>
       <c r="I21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -1724,31 +1724,31 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
         <v>128</v>
       </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>129</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" t="s">
         <v>130</v>
-      </c>
-      <c r="E22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" t="s">
-        <v>131</v>
       </c>
       <c r="H22" t="s">
         <v>120</v>
       </c>
       <c r="I22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J22" t="s">
         <v>17</v>
@@ -1756,22 +1756,22 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
         <v>133</v>
       </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>134</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>135</v>
       </c>
-      <c r="E23" t="s">
-        <v>125</v>
-      </c>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G23" t="s">
         <v>136</v>
@@ -1791,7 +1791,7 @@
         <v>138</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>139</v>
@@ -1800,7 +1800,7 @@
         <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F24" t="s">
         <v>139</v>
@@ -1823,7 +1823,7 @@
         <v>143</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>144</v>
@@ -1832,7 +1832,7 @@
         <v>145</v>
       </c>
       <c r="E25" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F25" t="s">
         <v>144</v>
@@ -1855,7 +1855,7 @@
         <v>148</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
         <v>149</v>
@@ -1864,7 +1864,7 @@
         <v>150</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F26" t="s">
         <v>149</v>
@@ -1951,7 +1951,7 @@
         <v>165</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>166</v>
@@ -1983,7 +1983,7 @@
         <v>171</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
         <v>172</v>
@@ -2015,7 +2015,7 @@
         <v>177</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
         <v>178</v>
@@ -2024,7 +2024,7 @@
         <v>179</v>
       </c>
       <c r="E31" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F31" t="s">
         <v>44</v>
@@ -2033,10 +2033,10 @@
         <v>178</v>
       </c>
       <c r="H31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J31" t="s">
         <v>17</v>
@@ -2044,31 +2044,31 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D32" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" t="s">
         <v>184</v>
       </c>
-      <c r="E32" t="s">
-        <v>185</v>
-      </c>
-      <c r="F32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" t="s">
-        <v>183</v>
-      </c>
       <c r="H32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J32" t="s">
         <v>17</v>
@@ -2076,25 +2076,25 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" t="s">
         <v>190</v>
-      </c>
-      <c r="E33" t="s">
-        <v>191</v>
-      </c>
-      <c r="F33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" t="s">
-        <v>189</v>
       </c>
       <c r="H33" t="s">
         <v>192</v>
@@ -2152,7 +2152,7 @@
         <v>202</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="F35" t="s">
         <v>44</v>
@@ -2161,10 +2161,10 @@
         <v>201</v>
       </c>
       <c r="H35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J35" t="s">
         <v>17</v>
@@ -2172,25 +2172,25 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" t="s">
         <v>207</v>
-      </c>
-      <c r="E36" t="s">
-        <v>208</v>
-      </c>
-      <c r="F36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" t="s">
-        <v>206</v>
       </c>
       <c r="H36" t="s">
         <v>209</v>

--- a/Electronics/BOM_LaserMonitorV1.xlsx
+++ b/Electronics/BOM_LaserMonitorV1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="224">
   <si>
     <t>No.</t>
   </si>
@@ -208,6 +208,24 @@
     <t>10</t>
   </si>
   <si>
+    <t>DS1038-15FBNSiA74-0CC</t>
+  </si>
+  <si>
+    <t>CN5</t>
+  </si>
+  <si>
+    <t>DSUB-TH_DS1038-15FBNSIA74-0CC</t>
+  </si>
+  <si>
+    <t>CONNFLY</t>
+  </si>
+  <si>
+    <t>C75754</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>SS34</t>
   </si>
   <si>
@@ -223,7 +241,7 @@
     <t>C8678</t>
   </si>
   <si>
-    <t>11</t>
+    <t>12</t>
   </si>
   <si>
     <t>SRV05-4</t>
@@ -241,7 +259,7 @@
     <t>C558418</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>DC-005-A250</t>
@@ -259,7 +277,7 @@
     <t>C720558</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>MF-NSMF050-2</t>
@@ -277,7 +295,7 @@
     <t>C75464</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>HDR-M_2.54_1x4P</t>
@@ -289,7 +307,7 @@
     <t>HDR-TH_4P-P2.54-V-M</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>HDR-F_2.54_2x3</t>
@@ -301,7 +319,7 @@
     <t>HDR-TH_6P-P2.54-V-F-R2-C3-S2.54</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>10uH</t>
@@ -322,7 +340,7 @@
     <t>C1051</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>KT-0603R</t>
@@ -340,7 +358,7 @@
     <t>C2286</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>MMBT4403</t>
@@ -358,7 +376,7 @@
     <t>C20069140</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>20kΩ</t>
@@ -379,7 +397,7 @@
     <t>C4184</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>8.2kΩ</t>
@@ -394,7 +412,7 @@
     <t>C25981</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>100Ω</t>
@@ -409,7 +427,7 @@
     <t>C22775</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>390Ω</t>
@@ -427,7 +445,7 @@
     <t>C17655</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>10kΩ</t>
@@ -442,7 +460,7 @@
     <t>C25804</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>4.7kΩ</t>
@@ -457,7 +475,7 @@
     <t>C23162</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>1kΩ</t>
@@ -472,7 +490,7 @@
     <t>C21190</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>SS-22F07-G100</t>
@@ -490,7 +508,7 @@
     <t>C5446810</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>HX711</t>
@@ -508,7 +526,7 @@
     <t>C6705483</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
   </si>
   <si>
     <t>WF100SPZ 2BG D6 AT</t>
@@ -526,7 +544,7 @@
     <t>C2886644</t>
   </si>
   <si>
-    <t>29</t>
+    <t>30</t>
   </si>
   <si>
     <t>AT172-CuH-S</t>
@@ -544,7 +562,7 @@
     <t>C20624244</t>
   </si>
   <si>
-    <t>30</t>
+    <t>31</t>
   </si>
   <si>
     <t>SN74LVC1T45DBVR</t>
@@ -562,7 +580,7 @@
     <t>C7843</t>
   </si>
   <si>
-    <t>31</t>
+    <t>32</t>
   </si>
   <si>
     <t>MX5052S</t>
@@ -580,7 +598,7 @@
     <t>C5875696</t>
   </si>
   <si>
-    <t>32</t>
+    <t>33</t>
   </si>
   <si>
     <t>DS18B20Z</t>
@@ -595,7 +613,7 @@
     <t>C695837</t>
   </si>
   <si>
-    <t>33</t>
+    <t>34</t>
   </si>
   <si>
     <t>L78M05ABDT-TR</t>
@@ -613,7 +631,7 @@
     <t>C58069</t>
   </si>
   <si>
-    <t>34</t>
+    <t>35</t>
   </si>
   <si>
     <t>ATMEGA328PB-AU</t>
@@ -631,7 +649,7 @@
     <t>C132230</t>
   </si>
   <si>
-    <t>35</t>
+    <t>36</t>
   </si>
   <si>
     <t>CH340C</t>
@@ -646,7 +664,7 @@
     <t>C7464026</t>
   </si>
   <si>
-    <t>36</t>
+    <t>37</t>
   </si>
   <si>
     <t>16MHz</t>
@@ -1041,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -1375,7 +1393,7 @@
         <v>64</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>65</v>
@@ -1407,7 +1425,7 @@
         <v>70</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>71</v>
@@ -1439,7 +1457,7 @@
         <v>76</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>77</v>
@@ -1471,7 +1489,7 @@
         <v>82</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>83</v>
@@ -1503,7 +1521,7 @@
         <v>88</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>89</v>
@@ -1518,33 +1536,33 @@
         <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
         <v>44</v>
@@ -1564,57 +1582,57 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="J17" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" t="s">
         <v>104</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>105</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" t="s">
         <v>106</v>
-      </c>
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" t="s">
-        <v>104</v>
       </c>
       <c r="H18" t="s">
         <v>107</v>
@@ -1675,16 +1693,16 @@
         <v>118</v>
       </c>
       <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
         <v>116</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>119</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>120</v>
-      </c>
-      <c r="I20" t="s">
-        <v>121</v>
       </c>
       <c r="J20" t="s">
         <v>17</v>
@@ -1692,31 +1710,31 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" t="s">
         <v>123</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>124</v>
       </c>
-      <c r="E21" t="s">
-        <v>118</v>
-      </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G21" t="s">
         <v>125</v>
       </c>
       <c r="H21" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -1724,31 +1742,31 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" t="s">
         <v>129</v>
       </c>
-      <c r="E22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" t="s">
-        <v>128</v>
-      </c>
       <c r="G22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H22" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J22" t="s">
         <v>17</v>
@@ -1756,28 +1774,28 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" t="s">
         <v>134</v>
-      </c>
-      <c r="E23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" t="s">
-        <v>133</v>
       </c>
       <c r="G23" t="s">
         <v>136</v>
       </c>
       <c r="H23" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I23" t="s">
         <v>137</v>
@@ -1791,7 +1809,7 @@
         <v>138</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>139</v>
@@ -1800,19 +1818,19 @@
         <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="F24" t="s">
         <v>139</v>
       </c>
       <c r="G24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H24" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
@@ -1820,31 +1838,31 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" t="s">
         <v>145</v>
       </c>
-      <c r="E25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" t="s">
-        <v>144</v>
-      </c>
       <c r="G25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H25" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J25" t="s">
         <v>17</v>
@@ -1852,31 +1870,31 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" t="s">
         <v>150</v>
       </c>
-      <c r="E26" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" t="s">
-        <v>149</v>
-      </c>
       <c r="G26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H26" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J26" t="s">
         <v>17</v>
@@ -1884,28 +1902,28 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" t="s">
         <v>155</v>
       </c>
-      <c r="E27" t="s">
-        <v>156</v>
-      </c>
-      <c r="F27" t="s">
-        <v>44</v>
-      </c>
       <c r="G27" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H27" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="I27" t="s">
         <v>158</v>
@@ -1983,7 +2001,7 @@
         <v>171</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>172</v>
@@ -2015,7 +2033,7 @@
         <v>177</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
         <v>178</v>
@@ -2047,7 +2065,7 @@
         <v>183</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
         <v>184</v>
@@ -2079,7 +2097,7 @@
         <v>189</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
         <v>190</v>
@@ -2088,7 +2106,7 @@
         <v>191</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F33" t="s">
         <v>44</v>
@@ -2097,10 +2115,10 @@
         <v>190</v>
       </c>
       <c r="H33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J33" t="s">
         <v>17</v>
@@ -2108,25 +2126,25 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D34" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" t="s">
+        <v>192</v>
+      </c>
+      <c r="F34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" t="s">
         <v>196</v>
-      </c>
-      <c r="E34" t="s">
-        <v>197</v>
-      </c>
-      <c r="F34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" t="s">
-        <v>195</v>
       </c>
       <c r="H34" t="s">
         <v>198</v>
@@ -2184,7 +2202,7 @@
         <v>208</v>
       </c>
       <c r="E36" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="F36" t="s">
         <v>44</v>
@@ -2193,10 +2211,10 @@
         <v>207</v>
       </c>
       <c r="H36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J36" t="s">
         <v>17</v>
@@ -2204,38 +2222,70 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D37" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" t="s">
         <v>213</v>
       </c>
-      <c r="E37" t="s">
-        <v>214</v>
-      </c>
-      <c r="F37" t="s">
-        <v>212</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>215</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>216</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>217</v>
       </c>
-      <c r="J37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" t="s">
+        <v>220</v>
+      </c>
+      <c r="F38" t="s">
+        <v>218</v>
+      </c>
+      <c r="G38" t="s">
+        <v>221</v>
+      </c>
+      <c r="H38" t="s">
+        <v>222</v>
+      </c>
+      <c r="I38" t="s">
+        <v>223</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>44</v>
       </c>
     </row>
